--- a/PMS_Requirements_Matrix.xlsx
+++ b/PMS_Requirements_Matrix.xlsx
@@ -830,9 +830,9 @@
           <t>High</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Scaffolded</t>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>Implemented</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
           <t>SUB-PR-0003-BE: REST CRUD endpoints for patient demographics [Verified]</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>SUB-PR-0003-WEB: Patient CRUD forms and list views [Not Started]</t>
         </is>
@@ -1203,7 +1203,7 @@
           <t>SUB-PR-0007-BE: Patient search API endpoint [Not Started]</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>SUB-PR-0007-WEB: Patient search UI with filters [Not Started]</t>
         </is>
@@ -1240,7 +1240,7 @@
           <t>SUB-PR-0008-BE: Paginated patient list API endpoint [Not Started]</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>SUB-PR-0008-WEB: Paginated patient list with navigation controls [Not Started]</t>
         </is>
@@ -1511,7 +1511,7 @@
           <t>SUB-CW-0003-BE: REST endpoints for encounter lifecycle [Placeholder]</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>SUB-CW-0003-WEB: Encounter lifecycle UI (list, create, status updates) [Not Started]</t>
         </is>
@@ -1607,7 +1607,7 @@
           <t>SUB-CW-0006-BE: Validate encounter types [Placeholder]</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>SUB-CW-0006-WEB: Encounter type selection in forms [Not Started]</t>
         </is>
@@ -1762,7 +1762,7 @@
           <t>SUB-MM-0001-BE: Drug interaction check API endpoint (&lt; 5 sec response) [Placeholder]</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>SUB-MM-0001-WEB: Drug interaction warning display on medication page [Not Started]</t>
         </is>
@@ -2109,7 +2109,7 @@
           <t>SUB-RA-0001-BE: Patient volume report API endpoint [Placeholder]</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>SUB-RA-0001-WEB: Patient volume dashboard with date range controls [Not Started]</t>
         </is>
@@ -2141,7 +2141,7 @@
           <t>SUB-RA-0002-BE: Encounter summary report API endpoint [Placeholder]</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>SUB-RA-0002-WEB: Encounter summary dashboard with charts [Not Started]</t>
         </is>
@@ -2269,7 +2269,7 @@
           <t>SUB-RA-0006-BE: Medication usage report API endpoint [Placeholder]</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>SUB-RA-0006-WEB: Medication usage dashboard with charts [Not Started]</t>
         </is>
